--- a/spotify_album_data.xlsx
+++ b/spotify_album_data.xlsx
@@ -456,12 +456,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09lzqRgkIAJfr1KZ3qREYD</t>
+          <t>7CIQ85Sn6oJRDv2AfX4vmM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benny Goodman Live At Carnegie Hall-1938 Complete</t>
+          <t>Benny Goodman Sextet Benny Goodman Sextet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.9391752577319588</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8316831683168316</v>
+        <v>4.688235294117647</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9898989898989899</v>
+        <v>4.68989898989899</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -560,12 +560,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2Bp2aFWVUOxTtmSuJu4W9U</t>
+          <t>7cUNwCAr6hCyGCzwyveU7j</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thelonious Monk Genius Of Modern Music (Vol. 2)</t>
+          <t>Thelonious Monk Genius Of Modern Music (Vol.2, Expanded Edition)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.946236559139785</v>
+        <v>4.91764705882353</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9090909090909091</v>
+        <v>4.609090909090909</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>

--- a/spotify_album_data.xlsx
+++ b/spotify_album_data.xlsx
@@ -1,34 +1,448 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27b8782347c7f142/Coding/Applications/spotify_best_albums/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_CDB8AFE7DC68E8CFEB3B98154B5DCE3A674516E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE79E78-5943-4D6C-87B8-C2A71DBCA352}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-18420" yWindow="-3195" windowWidth="18270" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>spotify_name</t>
+  </si>
+  <si>
+    <t>acclaimed_music_name</t>
+  </si>
+  <si>
+    <t>similarity_score</t>
+  </si>
+  <si>
+    <t>album_found_on_spotify</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>7CIQ85Sn6oJRDv2AfX4vmM</t>
+  </si>
+  <si>
+    <t>Benny Goodman Sextet Benny Goodman Sextet</t>
+  </si>
+  <si>
+    <t>Benny Goodman The Famous 1938 Carnegie Hall Jazz Concert</t>
+  </si>
+  <si>
+    <t>1DPRDrZgfU3rAo2SL4GrZw</t>
+  </si>
+  <si>
+    <t>Charlie Parker Charlie Parker With Strings (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Charlie Parker Charlie Parker with Strings</t>
+  </si>
+  <si>
+    <t>3dw9k0UHKn25TfksiJuNGE</t>
+  </si>
+  <si>
+    <t>Thelonious Monk Genius Of Modern Music Volume One</t>
+  </si>
+  <si>
+    <t>Thelonious Monk Genius of Modern Music  Volume One</t>
+  </si>
+  <si>
+    <t>6zmiY7rh11iF7Bp7Z9zcHp</t>
+  </si>
+  <si>
+    <t>Bud Powell The Amazing Bud Powell</t>
+  </si>
+  <si>
+    <t>7cUNwCAr6hCyGCzwyveU7j</t>
+  </si>
+  <si>
+    <t>Thelonious Monk Genius Of Modern Music (Vol.2, Expanded Edition)</t>
+  </si>
+  <si>
+    <t>Thelonious Monk Genius of Modern Music  Vol  2</t>
+  </si>
+  <si>
+    <t>29Sr9jUTMmb21marEL1me5</t>
+  </si>
+  <si>
+    <t>Charlie Parker &amp; Dizzy Gillespie Dizzy Bird</t>
+  </si>
+  <si>
+    <t>Charlie Parker and Dizzy Gillespie Bird   Diz</t>
+  </si>
+  <si>
+    <t>4R1biRqlEQTgKcDLs0AyhH</t>
+  </si>
+  <si>
+    <t>NYC Jazz Quartett The Great American Jazz Songbook, Vol.1</t>
+  </si>
+  <si>
+    <t>The Quintet Jazz at Massey Hall The Greatest Jazz Concert Ever</t>
+  </si>
+  <si>
+    <t>6XkR9eBv0hCWAYM9X5tqoO</t>
+  </si>
+  <si>
+    <t>Jay Jay Johnson Jay Jay Johnson With Clifford Brown</t>
+  </si>
+  <si>
+    <t>J  J  Johnson With Clifford Brown The Eminent Jay Jay Johnson Volume 1</t>
+  </si>
+  <si>
+    <t>1GBiPdt4ZSuqMIBLCBpdPQ</t>
+  </si>
+  <si>
+    <t>Stan Kenton Concepts Of Artistry In Rhythm</t>
+  </si>
+  <si>
+    <t>Stan Kenton New Concepts of Artistry in Rhythm</t>
+  </si>
+  <si>
+    <t>0mPCuxihg9PLTii895L1M5</t>
+  </si>
+  <si>
+    <t>Thelonious Monk Thelonious Monk Trio [RVG Remaster]</t>
+  </si>
+  <si>
+    <t>Thelonious Monk Thelonious Monk Trio</t>
+  </si>
+  <si>
+    <t>6teKbCzKG31qy5chsn75Iw</t>
+  </si>
+  <si>
+    <t>Duke Ellington Duke Ellington: The Reprise Studio Recordings</t>
+  </si>
+  <si>
+    <t>Duke Ellington Ellington Uptown Hi Fi Ellington Uptown</t>
+  </si>
+  <si>
+    <t>1gEGRhDmUBbWEIHWPzERrr</t>
+  </si>
+  <si>
+    <t>Peggy Lee Christmas With Peggy Lee</t>
+  </si>
+  <si>
+    <t>Peggy Lee Black Coffee with Peggy Lee</t>
+  </si>
+  <si>
+    <t>48u8T69QYtvg6edsQtgYXV</t>
+  </si>
+  <si>
+    <t>Fred Astaire The Astaire Story</t>
+  </si>
+  <si>
+    <t>0Kggi4r3OcApji9xJI3olG</t>
+  </si>
+  <si>
+    <t>Duke Ellington Duke Ellington Meets Coleman Hawkins</t>
+  </si>
+  <si>
+    <t>Duke Ellington The Duke Plays Ellington Piano Reflections</t>
+  </si>
+  <si>
+    <t>01EFyT5MpC3LYaOzws2Yjv</t>
+  </si>
+  <si>
+    <t>Miles Davis Volume 2 (Vol. 2)</t>
+  </si>
+  <si>
+    <t>Miles Davis Vol  2</t>
+  </si>
+  <si>
+    <t>7ddyOFJLCVaENsGVdqlxjV</t>
+  </si>
+  <si>
+    <t>Miles Davis Miles Davis &amp; The Modern Jazz Giants</t>
+  </si>
+  <si>
+    <t>Miles Davis Classics in Jazz Birth of the Cool</t>
+  </si>
+  <si>
+    <t>2EKn6vs5MXWjMubeBhqgKG</t>
+  </si>
+  <si>
+    <t>Clifford Brown Clifford Brown And Max Roach</t>
+  </si>
+  <si>
+    <t>Clifford Brown   Max Roach Daahoud Clifford Brown   Max Roach</t>
+  </si>
+  <si>
+    <t>2uqRXekelqGRFSWNalNxE5</t>
+  </si>
+  <si>
+    <t>Art Blakey Quintet A Night At Birdland, Vol. 2 (The Rudy Van Gelder Edition)</t>
+  </si>
+  <si>
+    <t>Art Blakey Quintet A Night at Birdland Vol  1</t>
+  </si>
+  <si>
+    <t>6yvbyi8LOzXI59WkW6QzG2</t>
+  </si>
+  <si>
+    <t>Louis Armstrong Louis Armstrong Plays W. C. Handy</t>
+  </si>
+  <si>
+    <t>Louis Armstrong Louis Armstrong Plays W C  Handy</t>
+  </si>
+  <si>
+    <t>6xZU03qxo4Yfux0xyG9Y6I</t>
+  </si>
+  <si>
+    <t>Sarah Vaughan Images</t>
+  </si>
+  <si>
+    <t>Sarah Vaughan Images Swingin  Easy</t>
+  </si>
+  <si>
+    <t>2QjkCel3cxXA573yPStwVg</t>
+  </si>
+  <si>
+    <t>Dinah Washington Dinah Jams (Live)</t>
+  </si>
+  <si>
+    <t>Dinah Washington Dinah Jams</t>
+  </si>
+  <si>
+    <t>Art Blakey Quintet A Night at Birdland Vol  2</t>
+  </si>
+  <si>
+    <t>7JkisS9bjzaQCgJ9btGjfq</t>
+  </si>
+  <si>
+    <t>Lester Young The President Plays With The Oscar Peterson Trio</t>
+  </si>
+  <si>
+    <t>Lester Young with the Oscar Peterson Trio With the Oscar Peterson Trio  1    2 The President Plays with the Oscar Peterson Trio</t>
+  </si>
+  <si>
+    <t>6dngHguvEgUGdmjR79OC7S</t>
+  </si>
+  <si>
+    <t>Chet Baker Chet Baker &amp; Strings</t>
+  </si>
+  <si>
+    <t>Chet Baker Chet Baker Sings</t>
+  </si>
+  <si>
+    <t>2LJXzZ0PfVz3K3EBWdqade</t>
+  </si>
+  <si>
+    <t>Bill Haley's Comets Rock and Roll Survivors Feat. Al Rappa &amp; Joey Welz</t>
+  </si>
+  <si>
+    <t>Bill Haley and His Comets Shake  Rattle and Roll  1954  Rock Around the Clock  1955</t>
+  </si>
+  <si>
+    <t>6hdkQFF1LmdBM8KLiObbzh</t>
+  </si>
+  <si>
+    <t>Roy Eldridge Roy And Diz (Expanded Edition)</t>
+  </si>
+  <si>
+    <t>Dizzy Gillespie with Roy Eldridge Roy and Diz  2</t>
+  </si>
+  <si>
+    <t>1GJeSeLhbyiOpsNNjndHLA</t>
+  </si>
+  <si>
+    <t>June Christy Something Cool (1955 Version)</t>
+  </si>
+  <si>
+    <t>June Christy Something Cool</t>
+  </si>
+  <si>
+    <t>19sNgSx2E2F6IhlYsmRcur</t>
+  </si>
+  <si>
+    <t>Frank Sinatra Songs For Young Lovers</t>
+  </si>
+  <si>
+    <t>Frank Sinatra Songs for Young Lovers</t>
+  </si>
+  <si>
+    <t>5LZkf6hrPnIwg7H6TlHG2C</t>
+  </si>
+  <si>
+    <t>The Dave Brubeck Quartet Jazz Goes To College</t>
+  </si>
+  <si>
+    <t>Dave Brubeck Quartet Jazz Goes to College</t>
+  </si>
+  <si>
+    <t>6j0yZEGpZBnoAQYIH0pIG7</t>
+  </si>
+  <si>
+    <t>Frank Sinatra Swing Easy!</t>
+  </si>
+  <si>
+    <t>Frank Sinatra Swing Easy</t>
+  </si>
+  <si>
+    <t>0g89pAOtXDdr9HfO79s5uM</t>
+  </si>
+  <si>
+    <t>Bud Powell The Amazing Bud Powell, Vol. 2 (2001 RVG Edition)</t>
+  </si>
+  <si>
+    <t>Bud Powell The Amazing Bud Powell  Vol  2</t>
+  </si>
+  <si>
+    <t>2iHafoTBCC0P37BL6jVp7v</t>
+  </si>
+  <si>
+    <t>Gerry Mulligan California Concerts</t>
+  </si>
+  <si>
+    <t>3GmwKB1tgPZgXeRJZSm9WX</t>
+  </si>
+  <si>
+    <t>Frank Sinatra In The Wee Small Hours</t>
+  </si>
+  <si>
+    <t>Frank Sinatra In the Wee Small Hours</t>
+  </si>
+  <si>
+    <t>4dKbs1IepsLdxwHUqNFe3x</t>
+  </si>
+  <si>
+    <t>Sarah Vaughan In The Land Of Hi-Fi</t>
+  </si>
+  <si>
+    <t>Sarah Vaughan with Clifford Brown Sarah Vaughan Sarah Vaughan with Clifford Brown</t>
+  </si>
+  <si>
+    <t>6wAEeX0s91fJDoqJyX4POQ</t>
+  </si>
+  <si>
+    <t>Horace Silver And The Jazz Messengers Horace Silver and the Jazz Messengers</t>
+  </si>
+  <si>
+    <t>Horace Silver Horace Silver Quintet  Vol  1   2  Horace Silver and The Jazz Messengers</t>
+  </si>
+  <si>
+    <t>6uX5idggmNHPmH1FQmw1NN</t>
+  </si>
+  <si>
+    <t>Dizzy Gillespie Groovin' High</t>
+  </si>
+  <si>
+    <t>Dizzy Gillespie Groovin  High</t>
+  </si>
+  <si>
+    <t>3158RZskTkHMhPvQICUeQ1</t>
+  </si>
+  <si>
+    <t>Clifford Brown Study In Brown</t>
+  </si>
+  <si>
+    <t>Clifford Brown   Max Roach Study in Brown</t>
+  </si>
+  <si>
+    <t>4ZNICkebqBbvXNZmBTUcq5</t>
+  </si>
+  <si>
+    <t>Count Basie Count Basie Swings - Joe Williams Sings</t>
+  </si>
+  <si>
+    <t>Count Basie Count Basie Swings  Joe Williams Sings</t>
+  </si>
+  <si>
+    <t>6hDZjN3iWJ95RIXnxbiG1P</t>
+  </si>
+  <si>
+    <t>Julie London Julie Is Her Name</t>
+  </si>
+  <si>
+    <t>7oa9WZyBnEHR8o0vjRWI7o</t>
+  </si>
+  <si>
+    <t>Lionel Hampton Hamp &amp; Getz</t>
+  </si>
+  <si>
+    <t>Lionel Hampton   Stan Getz Hamp   Getz</t>
+  </si>
+  <si>
+    <t>2x4LIlPPAVRdT17B1bqSBd</t>
+  </si>
+  <si>
+    <t>The Four Freshmen Four Freshmen And 5 Trombones</t>
+  </si>
+  <si>
+    <t>The Four Freshmen Four Freshmen and 5 Trombones</t>
+  </si>
+  <si>
+    <t>6TLl6JDupQR1sdHh20eWNG</t>
+  </si>
+  <si>
+    <t>Clifford Brown Clifford Brown With Strings</t>
+  </si>
+  <si>
+    <t>Clifford Brown Clifford Brown with Strings</t>
+  </si>
+  <si>
+    <t>4T898Wv8Pp33zkO8IYOL2y</t>
+  </si>
+  <si>
+    <t>Stan Getz West Coast Jazz (Expanded Edition)</t>
+  </si>
+  <si>
+    <t>Shelly Manne The West Coast Sound</t>
+  </si>
+  <si>
+    <t>7fRwdr4MvqlJhhhssTKutU</t>
+  </si>
+  <si>
+    <t>Miles Davis The Musings Of Miles</t>
+  </si>
+  <si>
+    <t>Miles Davis Miles Davis All Star Sextet Walkin</t>
+  </si>
+  <si>
+    <t>1KclxfwNOpocikBIY8yPig</t>
+  </si>
+  <si>
+    <t>Anita O'Day An Evening With Anita O'Day</t>
+  </si>
+  <si>
+    <t>Anita O Day Anita This Is Anita</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +461,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,205 +763,936 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="40.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>spotify_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>acclaimed_music_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>similarity_score</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>album_found_on_spotify</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7CIQ85Sn6oJRDv2AfX4vmM</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Benny Goodman Sextet Benny Goodman Sextet</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Benny Goodman The Famous 1938 Carnegie Hall Jazz Concert</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9391752577319588</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0.93917525773195876</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1950</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1DPRDrZgfU3rAo2SL4GrZw</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Charlie Parker Charlie Parker With Strings (Deluxe Edition)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Charlie Parker Charlie Parker with Strings</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4.688235294117647</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>4.6882352941176473</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1950</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3dw9k0UHKn25TfksiJuNGE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Thelonious Monk Genius Of Modern Music Volume One</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Thelonious Monk Genius of Modern Music  Volume One</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4.68989898989899</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>4.6898989898989898</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1951</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6zmiY7rh11iF7Bp7Z9zcHp</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bud Powell The Amazing Bud Powell</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bud Powell The Amazing Bud Powell</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1952</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7cUNwCAr6hCyGCzwyveU7j</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Thelonious Monk Genius Of Modern Music (Vol.2, Expanded Edition)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Thelonious Monk Genius of Modern Music  Vol  2</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4.91764705882353</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>4.9176470588235297</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1952</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>29Sr9jUTMmb21marEL1me5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charlie Parker &amp; Dizzy Gillespie Dizzy Bird</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Charlie Parker and Dizzy Gillespie Bird   Diz</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4.609090909090909</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>4.6090909090909093</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0.78991596638655459</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>1.0768595041322311</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>4.6545454545454543</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>4.6863013698630134</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>0.75438596491228072</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>0.76056338028169013</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>4.7</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>0.87037037037037035</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>4.6230769230769244</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>1.107692307692308</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>4.6565217391304348</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>4.9690721649484537</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>1.040740740740741</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>4.6818181818181817</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>4.6782608695652179</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>0.64893617021276595</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>4.931034482758621</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <v>0.73202614379084963</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>0.98493150684931496</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>4.9818181818181806</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <v>4.9534883720930232</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31">
+        <v>4.9795918367346941</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32">
+        <v>4.6638554216867476</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>4.7</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35">
+        <v>0.85652173913043472</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36">
+        <v>0.79503105590062106</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37">
+        <v>4.9655172413793096</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38">
+        <v>1.128571428571429</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39">
+        <v>4.6900990099009903</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41">
+        <v>1.08125</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43">
+        <v>4.7</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44">
+        <v>0.94406779661016937</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45">
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1955</v>
       </c>
     </row>
   </sheetData>
